--- a/database/ORB_KNN.xlsx
+++ b/database/ORB_KNN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="27">
   <si>
     <t>ORB</t>
   </si>
@@ -112,15 +112,26 @@
   <si>
     <t>orb_resultats.csv</t>
   </si>
+  <si>
+    <t>ORB has problem with blurred images</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,8 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -496,6 +508,9 @@
       <c r="C3">
         <v>1.39999389648437E-2</v>
       </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -1027,6 +1042,39 @@
       <c r="C18">
         <v>8.0001354217529297E-3</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>16667</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>4545</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
@@ -1038,38 +1086,38 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" t="s">
-        <v>24</v>
+      <c r="E19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1082,23 +1130,45 @@
       <c r="C20">
         <v>1.5000104904174799E-2</v>
       </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.01</v>
-      </c>
-      <c r="H20">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J20">
-        <v>8.9999999999999993E-3</v>
+      <c r="E20" s="1">
+        <f>AVERAGE(E21:E50)</f>
+        <v>9.2666705449422054E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:N20" si="0">AVERAGE(F21:F50)</f>
+        <v>5.6666771570841332E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4666668574015146E-3</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9666941960652541E-3</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6999982198079275E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2333434422810769E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666587193806906E-3</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5000038146972514E-3</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8333387374877779E-3</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8333228429158406E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1112,7 +1182,34 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.55000000000000004</v>
+        <v>1.39999389648437E-2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>6.9999694824218698E-3</v>
+      </c>
+      <c r="M21">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1126,7 +1223,34 @@
         <v>1.6000032424926699E-2</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.5999794006347601E-2</v>
+      </c>
+      <c r="N22">
+        <v>1.6000032424926699E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1140,7 +1264,34 @@
         <v>9.9992752075195291E-4</v>
       </c>
       <c r="E23">
-        <v>0.65</v>
+        <v>1.5999794006347601E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="L23">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1154,7 +1305,34 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>0.7</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.49998664855957E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1168,7 +1346,34 @@
         <v>1.49998664855957E-2</v>
       </c>
       <c r="E25">
-        <v>0.75</v>
+        <v>9.9999904632568307E-3</v>
+      </c>
+      <c r="F25">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="G25">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="H25">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="I25">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="J25">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="K25">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="L25">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="M25">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="N25">
+        <v>9.9999904632568307E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1182,7 +1387,34 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1.6000032424926699E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1196,7 +1428,34 @@
         <v>7.9998970031738195E-3</v>
       </c>
       <c r="E27">
-        <v>0.85</v>
+        <v>2.1999835968017498E-2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2.0999908447265601E-2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="M27">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1210,7 +1469,34 @@
         <v>1.6000032424926699E-2</v>
       </c>
       <c r="E28">
-        <v>0.9</v>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H28">
+        <v>2.000093460083E-3</v>
+      </c>
+      <c r="I28">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1224,7 +1510,34 @@
         <v>9.0000629425048793E-3</v>
       </c>
       <c r="E29">
-        <v>0.95</v>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1237,6 +1550,36 @@
       <c r="C30">
         <v>1.6000032424926699E-2</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.000093460083E-3</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2.000093460083E-3</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
@@ -1248,6 +1591,36 @@
       <c r="C31">
         <v>1.5000104904174799E-2</v>
       </c>
+      <c r="E31">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3.9999485015869097E-3</v>
+      </c>
+      <c r="H31">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="K31">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="L31">
+        <v>9.9999904632568307E-3</v>
+      </c>
+      <c r="M31">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="N31">
+        <v>1.49998664855957E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
@@ -1259,8 +1632,38 @@
       <c r="C32">
         <v>1.5000104904174799E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="I32">
+        <v>1.6999959945678701E-2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="M32">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="N32">
+        <v>1.5000104904174799E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1270,8 +1673,38 @@
       <c r="C33">
         <v>2.0999908447265601E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="G33">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1281,8 +1714,38 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="M34">
+        <v>9.9992752075195291E-4</v>
+      </c>
+      <c r="N34">
+        <v>7.9998970031738195E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1292,8 +1755,38 @@
       <c r="C35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="F35">
+        <v>1.20000839233398E-2</v>
+      </c>
+      <c r="G35">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="H35">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="I35">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="J35">
+        <v>6.0000419616699201E-3</v>
+      </c>
+      <c r="K35">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="L35">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="M35">
+        <v>1.10001564025878E-2</v>
+      </c>
+      <c r="N35">
+        <v>8.0001354217529297E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1303,8 +1796,38 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="G36">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="J36">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="K36">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1314,8 +1837,38 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3.0000209808349601E-3</v>
+      </c>
+      <c r="K37">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1.6000032424926699E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1325,8 +1878,38 @@
       <c r="C38">
         <v>1.5000104904174799E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1336,8 +1919,38 @@
       <c r="C39">
         <v>1.6000032424926699E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="G39">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H39">
+        <v>1.6999959945678701E-2</v>
+      </c>
+      <c r="I39">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="J39">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="K39">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="L39">
+        <v>3.0999898910522398E-2</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1.6000032424926699E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1347,8 +1960,38 @@
       <c r="C40">
         <v>7.9998970031738195E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>9.9992752075195291E-4</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3.0000209808349601E-3</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1358,8 +2001,38 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="F41">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="G41">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="M41">
+        <v>3.9999485015869097E-3</v>
+      </c>
+      <c r="N41">
+        <v>1.39999389648437E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1369,8 +2042,38 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="G42">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="L42">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1.6000032424926699E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1380,8 +2083,38 @@
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="I43">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="J43">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="K43">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1391,8 +2124,38 @@
       <c r="C44">
         <v>9.0000629425048793E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="J44">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="K44">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="L44">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1402,8 +2165,38 @@
       <c r="C45">
         <v>2.000093460083E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="F45">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="G45">
+        <v>6.9999694824218698E-3</v>
+      </c>
+      <c r="H45">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="I45">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="L45">
+        <v>9.9999904632568307E-3</v>
+      </c>
+      <c r="M45">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="N45">
+        <v>7.9998970031738195E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1413,8 +2206,38 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="I46">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="J46">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1.5999794006347601E-2</v>
+      </c>
+      <c r="N46">
+        <v>1.49998664855957E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1424,8 +2247,38 @@
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1.49998664855957E-2</v>
+      </c>
+      <c r="M47">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1435,8 +2288,38 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="E48">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="F48">
+        <v>9.9992752075195291E-4</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1.6999959945678701E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1446,8 +2329,38 @@
       <c r="C49">
         <v>1.49998664855957E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49">
+        <v>2.0999908447265601E-2</v>
+      </c>
+      <c r="F49">
+        <v>3.0000209808349601E-3</v>
+      </c>
+      <c r="G49">
+        <v>8.9998245239257795E-3</v>
+      </c>
+      <c r="H49">
+        <v>1.5000104904174799E-2</v>
+      </c>
+      <c r="I49">
+        <v>1.5999794006347601E-2</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>3.2000064849853502E-2</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1457,8 +2370,38 @@
       <c r="C50">
         <v>1.6000032424926699E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>2.000093460083E-3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>9.9992752075195291E-4</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +2412,7 @@
         <v>1.20000839233398E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +2423,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1491,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +2456,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1524,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +2489,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +2500,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +2533,7 @@
         <v>9.0000629425048793E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1601,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>10</v>
       </c>
